--- a/pred_ohlcv/54_21/2019-11-01 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 LBA ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-638471.2684323944</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-607999.6329277215</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-607999.6329277215</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-607999.6329277215</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-526199.6329277215</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-528248.0609277214</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-106097.6587277214</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-106097.6587277214</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-231701.935376286</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-231701.935376286</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-231701.935376286</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-357700.935376286</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-357700.935376286</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-358564.801276286</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-366308.009876286</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>62163.99286326964</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-8872.833136730362</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>48876.23496326964</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-99872.96834194794</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>2915987.843858052</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>2915987.843858052</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>3751427.505858052</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>3842095.422158052</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>4141814.905058052</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>4741536.071313321</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>4578236.131713321</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>4578236.131713321</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>4578236.131713321</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>3441153.67961332</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>3885969.57851332</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>2885460.64081332</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>3088715.271501115</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>2875657.412801115</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>2875657.412801115</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>2914795.661101115</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>2699539.651501115</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>2400141.023001115</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2427593.522701115</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>2247271.687201115</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>2335026.142001115</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>2234362.320701115</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>2667914.718501115</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>2538405.391701115</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>6128809.881122792</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>6252521.939197581</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>6245754.527297582</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>6208071.610997582</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>6226374.869397582</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>5984818.419997581</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>6016805.539997581</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>6237849.010359026</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>6175208.843659027</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>6198411.230359026</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>6198411.230359026</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>6247941.711759026</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>6246941.711759026</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>6203160.798359026</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>6203178.980159027</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>6203178.980159027</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>6144343.950059026</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>6172688.108759026</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>6079258.213359026</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>6079258.213359026</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>5882449.806859027</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>5824544.430459026</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>5546766.828959026</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>5676036.889659026</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>5625357.281159026</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 LBA ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-607999.6329277215</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-607999.6329277215</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-607999.6329277215</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-528248.0609277214</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-106097.6587277214</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-106097.6587277214</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-231701.935376286</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-231701.935376286</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-231701.935376286</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-357700.935376286</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-357700.935376286</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-358564.801276286</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-366308.009876286</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>62163.99286326964</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-8872.833136730362</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>48876.23496326964</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-99872.96834194794</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>2915987.843858052</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>2915987.843858052</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>3751427.505858052</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>3842095.422158052</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>4141814.905058052</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>4741536.071313321</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>4578236.131713321</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>4578236.131713321</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>4578236.131713321</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>3441153.67961332</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>3885969.57851332</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>2885460.64081332</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>3384466.58121332</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>3088715.271501115</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>2875657.412801115</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>2875657.412801115</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>2914795.661101115</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>2699539.651501115</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>2400141.023001115</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2427593.522701115</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>2247271.687201115</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>2335026.142001115</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>2234362.320701115</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>2667914.718501115</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>2538405.391701115</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
